--- a/Results/Italian_market.xlsx
+++ b/Results/Italian_market.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Arima</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -501,6 +506,9 @@
       </c>
       <c r="E2" t="n">
         <v>0.00639</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00767</v>
       </c>
     </row>
     <row r="3">
@@ -519,6 +527,9 @@
       <c r="E3" t="n">
         <v>0.03529</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.04141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -536,6 +547,9 @@
       <c r="E4" t="n">
         <v>0.51612</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.79452</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -556,6 +570,9 @@
       </c>
       <c r="E5" t="n">
         <v>0.00971</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01019</v>
       </c>
     </row>
     <row r="6">
@@ -574,6 +591,9 @@
       <c r="E6" t="n">
         <v>0.02699</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.0221</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -591,6 +611,9 @@
       <c r="E7" t="n">
         <v>0.54519</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.4202</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,6 +634,9 @@
       </c>
       <c r="E8" t="n">
         <v>0.01263</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01439</v>
       </c>
     </row>
     <row r="9">
@@ -629,6 +655,9 @@
       <c r="E9" t="n">
         <v>0.04188</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.02721</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -641,10 +670,13 @@
         <v>1.04861</v>
       </c>
       <c r="D10" t="n">
-        <v>3.13313</v>
+        <v>3.13312</v>
       </c>
       <c r="E10" t="n">
         <v>1.48682</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.79389</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +729,11 @@
           <t>Regression</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Arima</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -717,6 +754,9 @@
       </c>
       <c r="E2" t="n">
         <v>0.009310000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00878</v>
       </c>
     </row>
     <row r="3">
@@ -735,6 +775,9 @@
       <c r="E3" t="n">
         <v>0.02584</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.04335</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -752,6 +795,9 @@
       <c r="E4" t="n">
         <v>0.49298</v>
       </c>
+      <c r="F4" t="n">
+        <v>1.00426</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -772,6 +818,9 @@
       </c>
       <c r="E5" t="n">
         <v>0.01257</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01064</v>
       </c>
     </row>
     <row r="6">
@@ -790,6 +839,9 @@
       <c r="E6" t="n">
         <v>0.03947</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.04694</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -807,6 +859,9 @@
       <c r="E7" t="n">
         <v>1.33041</v>
       </c>
+      <c r="F7" t="n">
+        <v>1.46043</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -827,6 +882,9 @@
       </c>
       <c r="E8" t="n">
         <v>0.01256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01231</v>
       </c>
     </row>
     <row r="9">
@@ -845,6 +903,9 @@
       <c r="E9" t="n">
         <v>0.01078</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.04373</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -861,6 +922,9 @@
       </c>
       <c r="E10" t="n">
         <v>0.12179</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.56261</v>
       </c>
     </row>
   </sheetData>
